--- a/biology/Zoologie/Ebrosiro_coiffaiti/Ebrosiro_coiffaiti.xlsx
+++ b/biology/Zoologie/Ebrosiro_coiffaiti/Ebrosiro_coiffaiti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ebrosiro coiffaiti, unique représentant du genre Ebrosiro, est une espèce d'opilions cyphophthalmes de la famille des Parasironidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Espagne en Catalogne et en France dans les Pyrénées-Orientales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Espagne en Catalogne et en France dans les Pyrénées-Orientales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,56 à 1,62 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,56 à 1,62 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Ebrosiro coiffaiti a été décrite pour la première fois en 1956 par le biospéologiste français Christian Juberthie (d) (1931-) sous le protonyme Parasiro coiffaiti.
-En 2024, Ivo Mladen Karaman (d), Plamen Genkov Mitov (d) et Nataly Yurievna Snegovaya (d) créent le genre Ebrosiro et la reclassent sous son taxon actuel[3].
+En 2024, Ivo Mladen Karaman (d), Plamen Genkov Mitov (d) et Nataly Yurievna Snegovaya (d) créent le genre Ebrosiro et la reclassent sous son taxon actuel.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'entomologiste français Henri Coiffait (d) (1907–1989)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'entomologiste français Henri Coiffait (d) (1907–1989).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(fr) Christian Juberthie, « Une nouvelle espèce d'Opilions Sironidae de France et d'Espagne : Parasiro coiffaiti n. sp. » Bulletin du Muséum National d'Histoire Naturelle, 1956,sér. 2, vol. 28, no 4, p. 394–400 (lire en ligne).</t>
         </is>
